--- a/Tracking/Portfolio_tracking/config_path/portfolio_tracking_path_config.xlsx
+++ b/Tracking/Portfolio_tracking/config_path/portfolio_tracking_path_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Tracking\Portfolio_tracking\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103955CD-166E-4C08-B6C2-1824599624A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED025BF-038E-4AB6-A6F5-B08FF34D18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34425" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>data_type</t>
   </si>
@@ -132,12 +132,6 @@
     <t>input_folder_2</t>
   </si>
   <si>
-    <t>future_info</t>
-  </si>
-  <si>
-    <t>data_product\future_option_position</t>
-  </si>
-  <si>
     <t>data_l4</t>
   </si>
   <si>
@@ -203,7 +197,100 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>data_product\product_holding\宣夜惠盈1号</t>
+    <t>data_product\product_info\宣夜惠盈1号\stock</t>
+  </si>
+  <si>
+    <t>future_info_rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\瑞锐\Future</t>
+  </si>
+  <si>
+    <t>data_folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_holding_rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\瑞锐\Stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_convertibleBond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future_info_xy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future_info_rj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\宣夜惠盈1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future_info_zx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future_info_gy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\瑞景39号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\知行4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\高益振英一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_l4_holding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_level4\L4_read_data</t>
+  </si>
+  <si>
+    <t>config_folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading_config\config_product.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future_info_renr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\仁睿价值精选1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_holding_renr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_product\product_info\仁睿价值精选1号\Stock</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,22 +792,22 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -727,35 +815,145 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +964,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -811,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -822,10 +1021,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -839,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -853,13 +1052,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,7 +1066,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>1</v>
